--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.320246937412078</v>
+        <v>7.32024693741205</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.82976730056931</v>
+        <v>11.82976730056939</v>
       </c>
       <c r="E2">
-        <v>35.84600576337115</v>
+        <v>35.84600576337104</v>
       </c>
       <c r="F2">
-        <v>76.58482857575184</v>
+        <v>76.58482857575167</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>80.68604397684361</v>
+        <v>80.68604397684337</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.936754252686981</v>
+        <v>6.936754252686937</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.30915964653117</v>
+        <v>10.30915964653114</v>
       </c>
       <c r="E3">
-        <v>31.95082643402331</v>
+        <v>31.95082643402321</v>
       </c>
       <c r="F3">
         <v>67.83722268498637</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>73.3037197314444</v>
+        <v>73.30371973144443</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.698615286682327</v>
+        <v>6.698615286682311</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.462420602602565</v>
+        <v>9.462420602602505</v>
       </c>
       <c r="E4">
-        <v>29.73686954356873</v>
+        <v>29.73686954356884</v>
       </c>
       <c r="F4">
-        <v>62.89004329742881</v>
+        <v>62.89004329742897</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>68.92125361497001</v>
+        <v>68.92125361497014</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.600779767346329</v>
+        <v>6.600779767346368</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.130037853019267</v>
+        <v>9.130037853019061</v>
       </c>
       <c r="E5">
-        <v>28.857183679577</v>
+        <v>28.85718367957686</v>
       </c>
       <c r="F5">
-        <v>60.93444931481262</v>
+        <v>60.93444931481235</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>67.14491105381526</v>
+        <v>67.14491105381532</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.584485385459321</v>
+        <v>6.584485385459322</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.07542978457001</v>
+        <v>9.075429784569932</v>
       </c>
       <c r="E6">
-        <v>28.71203852163343</v>
+        <v>28.71203852163342</v>
       </c>
       <c r="F6">
-        <v>60.61246527712578</v>
+        <v>60.61246527712563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>66.84996432982282</v>
+        <v>66.84996432982291</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.69729910966749</v>
+        <v>6.697299109667471</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.45789530254841</v>
+        <v>9.457895302548605</v>
       </c>
       <c r="E7">
-        <v>29.72493528239797</v>
+        <v>29.72493528239793</v>
       </c>
       <c r="F7">
-        <v>62.86346808645158</v>
+        <v>62.86346808645169</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>68.89728533141637</v>
+        <v>68.89728533141611</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.18844706581235</v>
+        <v>7.188447065812296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.27983447030667</v>
+        <v>11.27983447030685</v>
       </c>
       <c r="E8">
-        <v>34.44764018705755</v>
+        <v>34.44764018705778</v>
       </c>
       <c r="F8">
-        <v>73.44250879111775</v>
+        <v>73.44250879111887</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>78.08621768275935</v>
+        <v>78.08621768275968</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E9">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F9">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E10">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F10">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E11">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F11">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E12">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F12">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E13">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F13">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E14">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F14">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E15">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F15">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E16">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F16">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E17">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F17">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E18">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F18">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E19">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F19">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E20">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F20">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E21">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F21">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E22">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F22">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E23">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F23">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E24">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F24">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.178167327551854</v>
+        <v>8.178167327551925</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.34505245644453</v>
+        <v>17.34505245644469</v>
       </c>
       <c r="E25">
-        <v>49.67247103423135</v>
+        <v>49.67247103423208</v>
       </c>
       <c r="F25">
-        <v>106.5551133983729</v>
+        <v>106.5551133983744</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>102.731279654236</v>
+        <v>102.731279654237</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.32024693741205</v>
+        <v>7.320246937412078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.82976730056939</v>
+        <v>11.82976730056931</v>
       </c>
       <c r="E2">
-        <v>35.84600576337104</v>
+        <v>35.84600576337115</v>
       </c>
       <c r="F2">
-        <v>76.58482857575167</v>
+        <v>76.58482857575184</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>80.68604397684337</v>
+        <v>80.68604397684361</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.936754252686937</v>
+        <v>6.936754252686981</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.30915964653114</v>
+        <v>10.30915964653117</v>
       </c>
       <c r="E3">
-        <v>31.95082643402321</v>
+        <v>31.95082643402331</v>
       </c>
       <c r="F3">
         <v>67.83722268498637</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>73.30371973144443</v>
+        <v>73.3037197314444</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.698615286682311</v>
+        <v>6.698615286682327</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.462420602602505</v>
+        <v>9.462420602602565</v>
       </c>
       <c r="E4">
-        <v>29.73686954356884</v>
+        <v>29.73686954356873</v>
       </c>
       <c r="F4">
-        <v>62.89004329742897</v>
+        <v>62.89004329742881</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>68.92125361497014</v>
+        <v>68.92125361497001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.600779767346368</v>
+        <v>6.600779767346329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.130037853019061</v>
+        <v>9.130037853019267</v>
       </c>
       <c r="E5">
-        <v>28.85718367957686</v>
+        <v>28.857183679577</v>
       </c>
       <c r="F5">
-        <v>60.93444931481235</v>
+        <v>60.93444931481262</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>67.14491105381532</v>
+        <v>67.14491105381526</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.584485385459322</v>
+        <v>6.584485385459321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.075429784569932</v>
+        <v>9.07542978457001</v>
       </c>
       <c r="E6">
-        <v>28.71203852163342</v>
+        <v>28.71203852163343</v>
       </c>
       <c r="F6">
-        <v>60.61246527712563</v>
+        <v>60.61246527712578</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>66.84996432982291</v>
+        <v>66.84996432982282</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.697299109667471</v>
+        <v>6.69729910966749</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.457895302548605</v>
+        <v>9.45789530254841</v>
       </c>
       <c r="E7">
-        <v>29.72493528239793</v>
+        <v>29.72493528239797</v>
       </c>
       <c r="F7">
-        <v>62.86346808645169</v>
+        <v>62.86346808645158</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>68.89728533141611</v>
+        <v>68.89728533141637</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.188447065812296</v>
+        <v>7.18844706581235</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.27983447030685</v>
+        <v>11.27983447030667</v>
       </c>
       <c r="E8">
-        <v>34.44764018705778</v>
+        <v>34.44764018705755</v>
       </c>
       <c r="F8">
-        <v>73.44250879111887</v>
+        <v>73.44250879111775</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>78.08621768275968</v>
+        <v>78.08621768275935</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E9">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F9">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E10">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F10">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E11">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F11">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E12">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F12">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E13">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F13">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E14">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F14">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E15">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F15">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E16">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F16">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E17">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F17">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E18">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F18">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E19">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F19">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E20">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F20">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E21">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F21">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E22">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F22">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E23">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F23">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E24">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F24">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.178167327551925</v>
+        <v>8.178167327551854</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.34505245644469</v>
+        <v>17.34505245644453</v>
       </c>
       <c r="E25">
-        <v>49.67247103423208</v>
+        <v>49.67247103423135</v>
       </c>
       <c r="F25">
-        <v>106.5551133983744</v>
+        <v>106.5551133983729</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>102.731279654237</v>
+        <v>102.731279654236</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.320246937412078</v>
+        <v>7.316700645070699</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.82976730056931</v>
+        <v>11.58734685087792</v>
       </c>
       <c r="E2">
-        <v>35.84600576337115</v>
+        <v>35.54158754624455</v>
       </c>
       <c r="F2">
-        <v>76.58482857575184</v>
+        <v>75.64975166572424</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.77604275960945</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>80.68604397684361</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>80.0210710848052</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.936754252686981</v>
+        <v>6.934176975914888</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.30915964653117</v>
+        <v>10.10370654638694</v>
       </c>
       <c r="E3">
-        <v>31.95082643402331</v>
+        <v>31.71890624143335</v>
       </c>
       <c r="F3">
-        <v>67.83722268498637</v>
+        <v>67.10804329253799</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.834440561273814</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>73.3037197314444</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>72.73905509820028</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.698615286682327</v>
+        <v>6.696542296179983</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.462420602602565</v>
+        <v>9.275107572972633</v>
       </c>
       <c r="E4">
-        <v>29.73686954356873</v>
+        <v>29.53622047850562</v>
       </c>
       <c r="F4">
-        <v>62.89004329742881</v>
+        <v>62.26471093053725</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.866643299692164</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>68.92125361497001</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>68.40201623277959</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.600779767346329</v>
+        <v>6.598901954340597</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.130037853019267</v>
+        <v>8.949620921596688</v>
       </c>
       <c r="E5">
-        <v>28.857183679577</v>
+        <v>28.66753216393823</v>
       </c>
       <c r="F5">
-        <v>60.93444931481262</v>
+        <v>60.34907897728547</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.879204906675792</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>67.14491105381526</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>66.64203978538274</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.584485385459321</v>
+        <v>6.582639568617984</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.07542978457001</v>
+        <v>8.896139175633834</v>
       </c>
       <c r="E6">
-        <v>28.71203852163343</v>
+        <v>28.52413399469047</v>
       </c>
       <c r="F6">
-        <v>60.61246527712578</v>
+        <v>60.03364584161903</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.881264030474089</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>66.84996432982282</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>66.34971325768919</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.69729910966749</v>
+        <v>6.695228782993862</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.45789530254841</v>
+        <v>9.270676745026783</v>
       </c>
       <c r="E7">
-        <v>29.72493528239797</v>
+        <v>29.52444032695883</v>
       </c>
       <c r="F7">
-        <v>62.86346808645158</v>
+        <v>62.23868142874094</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.866814641648511</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>68.89728533141637</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>68.37827579578874</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.18844706581235</v>
+        <v>7.185265214939626</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.27983447030667</v>
+        <v>11.05170182137849</v>
       </c>
       <c r="E8">
-        <v>34.44764018705755</v>
+        <v>34.17244510104271</v>
       </c>
       <c r="F8">
-        <v>73.44250879111775</v>
+        <v>72.58613880080981</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.797228286983519</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>78.08621768275935</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>77.46096003921394</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E9">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F9">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E10">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F10">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E11">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F11">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E12">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F12">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E13">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F13">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E14">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F14">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E15">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F15">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E16">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F16">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E17">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F17">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E18">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F18">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E19">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F19">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E20">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F20">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E21">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F21">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E22">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F22">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E23">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F23">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E24">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F24">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.178167327551854</v>
+        <v>8.159414911968959</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.34505245644453</v>
+        <v>16.6620623967008</v>
       </c>
       <c r="E25">
-        <v>49.67247103423135</v>
+        <v>48.26101999382573</v>
       </c>
       <c r="F25">
-        <v>106.5551133983729</v>
+        <v>103.3802113722566</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.571345927093166</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>102.731279654236</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>100.7589017581859</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.316700645070699</v>
+        <v>7.347983808891942</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.58734685087792</v>
+        <v>17.56264208704247</v>
       </c>
       <c r="E2">
-        <v>35.54158754624455</v>
+        <v>49.00842672276836</v>
       </c>
       <c r="F2">
-        <v>75.64975166572424</v>
+        <v>100.8705097855909</v>
       </c>
       <c r="G2">
-        <v>1.77604275960945</v>
+        <v>1.530992759101473</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>80.0210710848052</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>86.6424012563868</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.934176975914888</v>
+        <v>6.94187979110673</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.10370654638694</v>
+        <v>13.5334612862319</v>
       </c>
       <c r="E3">
-        <v>31.71890624143335</v>
+        <v>43.11375296146717</v>
       </c>
       <c r="F3">
-        <v>67.10804329253799</v>
+        <v>80.36578159079181</v>
       </c>
       <c r="G3">
-        <v>1.834440561273814</v>
+        <v>1.68639389419594</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>72.73905509820028</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>74.84245622022628</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.696542296179983</v>
+        <v>6.699195315502463</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.275107572972633</v>
+        <v>11.95954264889421</v>
       </c>
       <c r="E4">
-        <v>29.53622047850562</v>
+        <v>40.25263637928646</v>
       </c>
       <c r="F4">
-        <v>62.26471093053725</v>
+        <v>72.13360216094202</v>
       </c>
       <c r="G4">
-        <v>1.866643299692164</v>
+        <v>1.746696809324465</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>68.40201623277959</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>69.43111893418008</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.598901954340597</v>
+        <v>6.600266864089492</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.949620921596688</v>
+        <v>11.39257806003902</v>
       </c>
       <c r="E5">
-        <v>28.66753216393823</v>
+        <v>39.13888795769388</v>
       </c>
       <c r="F5">
-        <v>60.34907897728547</v>
+        <v>69.1381316619637</v>
       </c>
       <c r="G5">
-        <v>1.879204906675792</v>
+        <v>1.76834083913831</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>66.64203978538274</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>67.36049545861145</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.582639568617984</v>
+        <v>6.583822811914072</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.896139175633834</v>
+        <v>11.30153789711886</v>
       </c>
       <c r="E6">
-        <v>28.52413399469047</v>
+        <v>38.95578639652307</v>
       </c>
       <c r="F6">
-        <v>60.03364584161903</v>
+        <v>68.65568551747822</v>
       </c>
       <c r="G6">
-        <v>1.881264030474089</v>
+        <v>1.771812059791779</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>66.34971325768919</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>67.02174455532953</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.695228782993862</v>
+        <v>6.697862030677729</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.270676745026783</v>
+        <v>11.95166463715459</v>
       </c>
       <c r="E7">
-        <v>29.52444032695883</v>
+        <v>40.23747033938972</v>
       </c>
       <c r="F7">
-        <v>62.23868142874094</v>
+        <v>72.09208736205707</v>
       </c>
       <c r="G7">
-        <v>1.866814641648511</v>
+        <v>1.746997860178503</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>68.37827579578874</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>69.40280143981641</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.185265214939626</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.05170182137849</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E8">
-        <v>34.17244510104271</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F8">
-        <v>72.58613880080981</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G8">
-        <v>1.797228286983519</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>77.46096003921394</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E9">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F9">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G9">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E10">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F10">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G10">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E11">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F11">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G11">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E12">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F12">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G12">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E13">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F13">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G13">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E14">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F14">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G14">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E15">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F15">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G15">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E16">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F16">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G16">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E17">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F17">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G17">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E18">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F18">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G18">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E19">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F19">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G19">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E20">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F20">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G20">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E21">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F21">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G21">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E22">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F22">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G22">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E23">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F23">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G23">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E24">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F24">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G24">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.159414911968959</v>
+        <v>7.204053657390312</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.6620623967008</v>
+        <v>15.75888722034923</v>
       </c>
       <c r="E25">
-        <v>48.26101999382573</v>
+        <v>46.61427087138274</v>
       </c>
       <c r="F25">
-        <v>103.3802113722566</v>
+        <v>91.79236969647742</v>
       </c>
       <c r="G25">
-        <v>1.571345927093166</v>
+        <v>1.600696257083469</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>100.7589017581859</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>81.70777821840865</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.347983808891942</v>
+        <v>16.91214862876053</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.56264208704247</v>
+        <v>2.347014317248993</v>
       </c>
       <c r="E2">
-        <v>49.00842672276836</v>
+        <v>18.19312434141519</v>
       </c>
       <c r="F2">
-        <v>100.8705097855909</v>
+        <v>23.57638295630052</v>
       </c>
       <c r="G2">
-        <v>1.530992759101473</v>
+        <v>2.024934863430683</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.51310246234875</v>
       </c>
       <c r="M2">
-        <v>86.6424012563868</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.2885182946116</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.01751937285023</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.94187979110673</v>
+        <v>15.95822354606962</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.5334612862319</v>
+        <v>2.320034982676443</v>
       </c>
       <c r="E3">
-        <v>43.11375296146717</v>
+        <v>17.81177451702212</v>
       </c>
       <c r="F3">
-        <v>80.36578159079181</v>
+        <v>22.20047613514136</v>
       </c>
       <c r="G3">
-        <v>1.68639389419594</v>
+        <v>2.031722235807255</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.866122002116869</v>
       </c>
       <c r="M3">
-        <v>74.84245622022628</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.22915935281431</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.08782385017456</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.699195315502463</v>
+        <v>15.34862805492024</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.95954264889421</v>
+        <v>2.30322724397221</v>
       </c>
       <c r="E4">
-        <v>40.25263637928646</v>
+        <v>17.57524446635526</v>
       </c>
       <c r="F4">
-        <v>72.13360216094202</v>
+        <v>21.33319359035273</v>
       </c>
       <c r="G4">
-        <v>1.746696809324465</v>
+        <v>2.036014921381884</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.44729265026765</v>
       </c>
       <c r="M4">
-        <v>69.43111893418008</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.19751310400777</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.50865179035626</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.600266864089492</v>
+        <v>15.09443054420671</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.39257806003902</v>
+        <v>2.296322263184116</v>
       </c>
       <c r="E5">
-        <v>39.13888795769388</v>
+        <v>17.4783878332956</v>
       </c>
       <c r="F5">
-        <v>69.1381316619637</v>
+        <v>20.97448809685366</v>
       </c>
       <c r="G5">
-        <v>1.76834083913831</v>
+        <v>2.037796715600031</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.271203764003525</v>
       </c>
       <c r="M5">
-        <v>67.36049545861145</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.18581632927818</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.27084392888209</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.583822811914072</v>
+        <v>15.05187949798238</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.30153789711886</v>
+        <v>2.295172489293658</v>
       </c>
       <c r="E6">
-        <v>38.95578639652307</v>
+        <v>17.46228045466659</v>
       </c>
       <c r="F6">
-        <v>68.65568551747822</v>
+        <v>20.9146188752474</v>
       </c>
       <c r="G6">
-        <v>1.771812059791779</v>
+        <v>2.038094571850727</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.241638087726935</v>
       </c>
       <c r="M6">
-        <v>67.02174455532953</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.18394628125706</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.23125793629342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.697862030677729</v>
+        <v>15.34522294004726</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.95166463715459</v>
+        <v>2.303134339427422</v>
       </c>
       <c r="E7">
-        <v>40.23747033938972</v>
+        <v>17.57393994619252</v>
       </c>
       <c r="F7">
-        <v>72.09208736205707</v>
+        <v>21.32837679265816</v>
       </c>
       <c r="G7">
-        <v>1.746997860178503</v>
+        <v>2.036038818440694</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.444939741700169</v>
       </c>
       <c r="M7">
-        <v>69.40280143981641</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.197350512049</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.50545143751389</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.204053657390312</v>
+        <v>16.58831066069198</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>15.75888722034923</v>
+        <v>2.337765223705212</v>
       </c>
       <c r="E8">
-        <v>46.61427087138274</v>
+        <v>18.0622047891083</v>
       </c>
       <c r="F8">
-        <v>91.79236969647742</v>
+        <v>23.10682940153913</v>
       </c>
       <c r="G8">
-        <v>1.600696257083469</v>
+        <v>2.027249784328716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.29450749694371</v>
       </c>
       <c r="M8">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.26705057779117</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.69885704469703</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.204053657390312</v>
+        <v>18.82906219749752</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>15.75888722034923</v>
+        <v>2.403533969704268</v>
       </c>
       <c r="E9">
-        <v>46.61427087138274</v>
+        <v>18.99543544966202</v>
       </c>
       <c r="F9">
-        <v>91.79236969647742</v>
+        <v>26.40407408813757</v>
       </c>
       <c r="G9">
-        <v>1.600696257083469</v>
+        <v>2.010959504900459</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.78924118796661</v>
       </c>
       <c r="M9">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.44213906247385</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>19.96231993008381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.204053657390312</v>
+        <v>20.3480846436549</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>15.75888722034923</v>
+        <v>2.45027247771999</v>
       </c>
       <c r="E10">
-        <v>46.61427087138274</v>
+        <v>19.65962544711967</v>
       </c>
       <c r="F10">
-        <v>91.79236969647742</v>
+        <v>28.89196027737668</v>
       </c>
       <c r="G10">
-        <v>1.600696257083469</v>
+        <v>1.999494455724735</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.78367776383555</v>
       </c>
       <c r="M10">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.59458973450892</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>21.74930763750745</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.204053657390312</v>
+        <v>21.01063182823683</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.75888722034923</v>
+        <v>2.471139208058296</v>
       </c>
       <c r="E11">
-        <v>46.61427087138274</v>
+        <v>19.95588158182829</v>
       </c>
       <c r="F11">
-        <v>91.79236969647742</v>
+        <v>29.99722279044452</v>
       </c>
       <c r="G11">
-        <v>1.600696257083469</v>
+        <v>1.994370442741169</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.21385003067359</v>
       </c>
       <c r="M11">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.66918623046532</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22.59908013898687</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.204053657390312</v>
+        <v>21.25738967807792</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>15.75888722034923</v>
+        <v>2.478980208912493</v>
       </c>
       <c r="E12">
-        <v>46.61427087138274</v>
+        <v>20.06712838222575</v>
       </c>
       <c r="F12">
-        <v>91.79236969647742</v>
+        <v>30.40991487627963</v>
       </c>
       <c r="G12">
-        <v>1.600696257083469</v>
+        <v>1.992441679783801</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.37358516749038</v>
       </c>
       <c r="M12">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.69819290292013</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>22.91630596101928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.204053657390312</v>
+        <v>21.20443026190955</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>15.75888722034923</v>
+        <v>2.477294271186258</v>
       </c>
       <c r="E13">
-        <v>46.61427087138274</v>
+        <v>20.04321251935857</v>
       </c>
       <c r="F13">
-        <v>91.79236969647742</v>
+        <v>30.32129213133575</v>
       </c>
       <c r="G13">
-        <v>1.600696257083469</v>
+        <v>1.992856584377774</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.33932341254682</v>
       </c>
       <c r="M13">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.69191199528277</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>22.84818661590646</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.204053657390312</v>
+        <v>21.03101576250717</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.75888722034923</v>
+        <v>2.471785531340799</v>
       </c>
       <c r="E14">
-        <v>46.61427087138274</v>
+        <v>19.96505323526057</v>
       </c>
       <c r="F14">
-        <v>91.79236969647742</v>
+        <v>30.03129162844639</v>
       </c>
       <c r="G14">
-        <v>1.600696257083469</v>
+        <v>1.994211539445825</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.22705470481173</v>
       </c>
       <c r="M14">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.67155740070606</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>22.62526923048095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.204053657390312</v>
+        <v>20.92425510738358</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15.75888722034923</v>
+        <v>2.468403242884838</v>
       </c>
       <c r="E15">
-        <v>46.61427087138274</v>
+        <v>19.91705356258247</v>
       </c>
       <c r="F15">
-        <v>91.79236969647742</v>
+        <v>29.85290044707242</v>
       </c>
       <c r="G15">
-        <v>1.600696257083469</v>
+        <v>1.995042949008626</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.15787614325328</v>
       </c>
       <c r="M15">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.65918853396476</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>22.48813530048093</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.204053657390312</v>
+        <v>20.3042088145126</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15.75888722034923</v>
+        <v>2.448900491007741</v>
       </c>
       <c r="E16">
-        <v>46.61427087138274</v>
+        <v>19.64013782318494</v>
       </c>
       <c r="F16">
-        <v>91.79236969647742</v>
+        <v>28.81890366832257</v>
       </c>
       <c r="G16">
-        <v>1.600696257083469</v>
+        <v>1.999831032214836</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.75512073274498</v>
       </c>
       <c r="M16">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.58982061264034</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>21.69312739382003</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.204053657390312</v>
+        <v>19.91650357498776</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>15.75888722034923</v>
+        <v>2.436832077171974</v>
       </c>
       <c r="E17">
-        <v>46.61427087138274</v>
+        <v>19.46868228214494</v>
       </c>
       <c r="F17">
-        <v>91.79236969647742</v>
+        <v>28.17403467122886</v>
       </c>
       <c r="G17">
-        <v>1.600696257083469</v>
+        <v>2.002790726857243</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.50237689341766</v>
       </c>
       <c r="M17">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.54861241671202</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>21.19715387333567</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.204053657390312</v>
+        <v>19.69082756069485</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>15.75888722034923</v>
+        <v>2.429853693967153</v>
       </c>
       <c r="E18">
-        <v>46.61427087138274</v>
+        <v>19.3695163749682</v>
       </c>
       <c r="F18">
-        <v>91.79236969647742</v>
+        <v>27.79921329759171</v>
       </c>
       <c r="G18">
-        <v>1.600696257083469</v>
+        <v>2.004501778354128</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.35491332902424</v>
       </c>
       <c r="M18">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.52540410446439</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.90881064023272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.204053657390312</v>
+        <v>19.61395918545938</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>15.75888722034923</v>
+        <v>2.427484715658842</v>
       </c>
       <c r="E19">
-        <v>46.61427087138274</v>
+        <v>19.33584915039212</v>
       </c>
       <c r="F19">
-        <v>91.79236969647742</v>
+        <v>27.67163085303858</v>
       </c>
       <c r="G19">
-        <v>1.600696257083469</v>
+        <v>2.005082653121129</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.30462455819405</v>
       </c>
       <c r="M19">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.51763079971471</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20.81065172708324</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.204053657390312</v>
+        <v>19.95805301521822</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>15.75888722034923</v>
+        <v>2.438120634996697</v>
       </c>
       <c r="E20">
-        <v>46.61427087138274</v>
+        <v>19.48699155942535</v>
       </c>
       <c r="F20">
-        <v>91.79236969647742</v>
+        <v>28.24308601917252</v>
       </c>
       <c r="G20">
-        <v>1.600696257083469</v>
+        <v>2.002474771431068</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.52949821567099</v>
       </c>
       <c r="M20">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.55294798656171</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>21.25026831200683</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.204053657390312</v>
+        <v>21.08206423047887</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>15.75888722034923</v>
+        <v>2.473405260952909</v>
       </c>
       <c r="E21">
-        <v>46.61427087138274</v>
+        <v>19.98803668199151</v>
       </c>
       <c r="F21">
-        <v>91.79236969647742</v>
+        <v>30.11662941888303</v>
       </c>
       <c r="G21">
-        <v>1.600696257083469</v>
+        <v>1.993813254932907</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.26011627926114</v>
       </c>
       <c r="M21">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.67751541879436</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>22.69086830942974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.204053657390312</v>
+        <v>21.7971979911198</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>15.75888722034923</v>
+        <v>2.496110013328448</v>
       </c>
       <c r="E22">
-        <v>46.61427087138274</v>
+        <v>20.30998987154824</v>
       </c>
       <c r="F22">
-        <v>91.79236969647742</v>
+        <v>31.30709491708117</v>
       </c>
       <c r="G22">
-        <v>1.600696257083469</v>
+        <v>1.988219177023564</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.71920678372213</v>
       </c>
       <c r="M22">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.76335081305196</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>23.60584818003887</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.204053657390312</v>
+        <v>21.41557222592339</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>15.75888722034923</v>
+        <v>2.484025820324703</v>
       </c>
       <c r="E23">
-        <v>46.61427087138274</v>
+        <v>20.13868937880338</v>
       </c>
       <c r="F23">
-        <v>91.79236969647742</v>
+        <v>30.67478630066952</v>
       </c>
       <c r="G23">
-        <v>1.600696257083469</v>
+        <v>1.991199290862304</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.47585436768821</v>
       </c>
       <c r="M23">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.71713281519052</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>23.11988976377445</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.204053657390312</v>
+        <v>19.93927716621072</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>15.75888722034923</v>
+        <v>2.437538202571468</v>
       </c>
       <c r="E24">
-        <v>46.61427087138274</v>
+        <v>19.47871577769513</v>
       </c>
       <c r="F24">
-        <v>91.79236969647742</v>
+        <v>28.21188061368328</v>
       </c>
       <c r="G24">
-        <v>1.600696257083469</v>
+        <v>2.002617585222949</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.51724338909797</v>
       </c>
       <c r="M24">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.55098637185469</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>21.22626525461073</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.204053657390312</v>
+        <v>18.24483944663325</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.75888722034923</v>
+        <v>2.38600064783035</v>
       </c>
       <c r="E25">
-        <v>46.61427087138274</v>
+        <v>18.74628793447027</v>
       </c>
       <c r="F25">
-        <v>91.79236969647742</v>
+        <v>25.53382337630071</v>
       </c>
       <c r="G25">
-        <v>1.600696257083469</v>
+        <v>2.015272470904271</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.4031740067803</v>
       </c>
       <c r="M25">
-        <v>81.70777821840865</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.39061704266972</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19.3594925657472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.91214862876053</v>
+        <v>16.82143350898454</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.347014317248993</v>
+        <v>3.349707596532582</v>
       </c>
       <c r="E2">
-        <v>18.19312434141519</v>
+        <v>20.41886422545918</v>
       </c>
       <c r="F2">
-        <v>23.57638295630052</v>
+        <v>21.85140057643691</v>
       </c>
       <c r="G2">
-        <v>2.024934863430683</v>
+        <v>3.586930640635223</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.51310246234875</v>
+        <v>9.067296528280622</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.2885182946116</v>
+        <v>18.42349533107253</v>
       </c>
       <c r="O2">
-        <v>18.01751937285023</v>
+        <v>19.01137190211761</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.95822354606962</v>
+        <v>16.58666863510156</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.320034982676443</v>
+        <v>3.342681790691891</v>
       </c>
       <c r="E3">
-        <v>17.81177451702212</v>
+        <v>20.33578580041957</v>
       </c>
       <c r="F3">
-        <v>22.20047613514136</v>
+        <v>21.56521071399468</v>
       </c>
       <c r="G3">
-        <v>2.031722235807255</v>
+        <v>3.589550716205599</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.866122002116869</v>
+        <v>8.897090711359246</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.22915935281431</v>
+        <v>18.43308425783035</v>
       </c>
       <c r="O3">
-        <v>17.08782385017456</v>
+        <v>18.87025949664855</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34862805492024</v>
+        <v>16.44388922565025</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.30322724397221</v>
+        <v>3.338353761092133</v>
       </c>
       <c r="E4">
-        <v>17.57524446635526</v>
+        <v>20.28622281327175</v>
       </c>
       <c r="F4">
-        <v>21.33319359035273</v>
+        <v>21.39537748148832</v>
       </c>
       <c r="G4">
-        <v>2.036014921381884</v>
+        <v>3.591245901030725</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.44729265026765</v>
+        <v>8.792107186707812</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.19751310400777</v>
+        <v>18.44142747415911</v>
       </c>
       <c r="O4">
-        <v>16.50865179035626</v>
+        <v>18.78936180076191</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.09443054420671</v>
+        <v>16.38611789185491</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.296322263184116</v>
+        <v>3.336586955487837</v>
       </c>
       <c r="E5">
-        <v>17.4783878332956</v>
+        <v>20.26640357444996</v>
       </c>
       <c r="F5">
-        <v>20.97448809685366</v>
+        <v>21.32774102131831</v>
       </c>
       <c r="G5">
-        <v>2.037796715600031</v>
+        <v>3.591958513606826</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.271203764003525</v>
+        <v>8.749259879744447</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.18581632927818</v>
+        <v>18.44544696193285</v>
       </c>
       <c r="O5">
-        <v>16.27084392888209</v>
+        <v>18.75787231230001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05187949798238</v>
+        <v>16.37655191411471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.295172489293658</v>
+        <v>3.336293405055734</v>
       </c>
       <c r="E6">
-        <v>17.46228045466659</v>
+        <v>20.26313584546145</v>
       </c>
       <c r="F6">
-        <v>20.9146188752474</v>
+        <v>21.31660757344845</v>
       </c>
       <c r="G6">
-        <v>2.038094571850727</v>
+        <v>3.592078161859515</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.241638087726935</v>
+        <v>8.742142755833502</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.18394628125706</v>
+        <v>18.44615187332622</v>
       </c>
       <c r="O6">
-        <v>16.23125793629342</v>
+        <v>18.75273359142321</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34522294004726</v>
+        <v>16.44310834093394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.303134339427422</v>
+        <v>3.338329945282668</v>
       </c>
       <c r="E7">
-        <v>17.57393994619252</v>
+        <v>20.28595397485192</v>
       </c>
       <c r="F7">
-        <v>21.32837679265816</v>
+        <v>21.39445883000249</v>
       </c>
       <c r="G7">
-        <v>2.036038818440694</v>
+        <v>3.591255423164608</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.444939741700169</v>
+        <v>8.791529526443357</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.197350512049</v>
+        <v>18.44147917114306</v>
       </c>
       <c r="O7">
-        <v>16.50545143751389</v>
+        <v>18.78893110214992</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.58831066069198</v>
+        <v>16.74024409268024</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.337765223705212</v>
+        <v>3.347288313100139</v>
       </c>
       <c r="E8">
-        <v>18.0622047891083</v>
+        <v>20.38992690353857</v>
       </c>
       <c r="F8">
-        <v>23.10682940153913</v>
+        <v>21.75155600042121</v>
       </c>
       <c r="G8">
-        <v>2.027249784328716</v>
+        <v>3.587816144433467</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.29450749694371</v>
+        <v>9.008740545701897</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.26705057779117</v>
+        <v>18.4262932202203</v>
       </c>
       <c r="O8">
-        <v>17.69885704469703</v>
+        <v>18.9615439824977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.82906219749752</v>
+        <v>17.33075432790666</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.403533969704268</v>
+        <v>3.364723477694168</v>
       </c>
       <c r="E9">
-        <v>18.99543544966202</v>
+        <v>20.60467206695721</v>
       </c>
       <c r="F9">
-        <v>26.40407408813757</v>
+        <v>22.49437261835268</v>
       </c>
       <c r="G9">
-        <v>2.010959504900459</v>
+        <v>3.581754331011983</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.78924118796661</v>
+        <v>9.428602086572072</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.44213906247385</v>
+        <v>18.41590285899686</v>
       </c>
       <c r="O9">
-        <v>19.96231993008381</v>
+        <v>19.34407344892386</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.3480846436549</v>
+        <v>17.76536026326217</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.45027247771999</v>
+        <v>3.377426520612054</v>
       </c>
       <c r="E10">
-        <v>19.65962544711967</v>
+        <v>20.76820229389463</v>
       </c>
       <c r="F10">
-        <v>28.89196027737668</v>
+        <v>23.060313786113</v>
       </c>
       <c r="G10">
-        <v>1.999494455724735</v>
+        <v>3.577712207763242</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.78367776383555</v>
+        <v>9.730395562072957</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.59458973450892</v>
+        <v>18.41995754548472</v>
       </c>
       <c r="O10">
-        <v>21.74930763750745</v>
+        <v>19.64969585873301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.01063182823683</v>
+        <v>17.96240745138817</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.471139208058296</v>
+        <v>3.3831767752078</v>
       </c>
       <c r="E11">
-        <v>19.95588158182829</v>
+        <v>20.84365844403359</v>
       </c>
       <c r="F11">
-        <v>29.99722279044452</v>
+        <v>23.3209202199056</v>
       </c>
       <c r="G11">
-        <v>1.994370442741169</v>
+        <v>3.575961705122901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.21385003067359</v>
+        <v>9.865652826081782</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.66918623046532</v>
+        <v>18.42430965126229</v>
       </c>
       <c r="O11">
-        <v>22.59908013898687</v>
+        <v>19.79353924253394</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.25738967807792</v>
+        <v>18.03686238775579</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.478980208912493</v>
+        <v>3.385349669950313</v>
       </c>
       <c r="E12">
-        <v>20.06712838222575</v>
+        <v>20.87236871316547</v>
       </c>
       <c r="F12">
-        <v>30.40991487627963</v>
+        <v>23.41995606320362</v>
       </c>
       <c r="G12">
-        <v>1.992441679783801</v>
+        <v>3.575311454498589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.37358516749038</v>
+        <v>9.916533676767621</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.69819290292013</v>
+        <v>18.42631544478005</v>
       </c>
       <c r="O12">
-        <v>22.91630596101928</v>
+        <v>19.84865434426891</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.20443026190955</v>
+        <v>18.02083547514422</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.477294271186258</v>
+        <v>3.384881911069007</v>
       </c>
       <c r="E13">
-        <v>20.04321251935857</v>
+        <v>20.86617962976042</v>
       </c>
       <c r="F13">
-        <v>30.32129213133575</v>
+        <v>23.39861300391395</v>
       </c>
       <c r="G13">
-        <v>1.992856584377774</v>
+        <v>3.575450937101347</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.33932341254682</v>
+        <v>9.905591321787648</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.69191199528277</v>
+        <v>18.42586759717059</v>
       </c>
       <c r="O13">
-        <v>22.84818661590646</v>
+        <v>19.83675641646426</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.03101576250717</v>
+        <v>17.96853654376946</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.471785531340799</v>
+        <v>3.383355635748835</v>
       </c>
       <c r="E14">
-        <v>19.96505323526057</v>
+        <v>20.84601781147066</v>
       </c>
       <c r="F14">
-        <v>30.03129162844639</v>
+        <v>23.32906153778586</v>
       </c>
       <c r="G14">
-        <v>1.994211539445825</v>
+        <v>3.575907955941023</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.22705470481173</v>
+        <v>9.869845856437996</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.67155740070606</v>
+        <v>18.42446751612684</v>
       </c>
       <c r="O14">
-        <v>22.62526923048095</v>
+        <v>19.79806095047713</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.92425510738358</v>
+        <v>17.93647878565488</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.468403242884838</v>
+        <v>3.382420133439527</v>
       </c>
       <c r="E15">
-        <v>19.91705356258247</v>
+        <v>20.83368541978606</v>
       </c>
       <c r="F15">
-        <v>29.85290044707242</v>
+        <v>23.28650175243444</v>
       </c>
       <c r="G15">
-        <v>1.995042949008626</v>
+        <v>3.576189535546929</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.15787614325328</v>
+        <v>9.84790536443607</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.65918853396476</v>
+        <v>18.42365642833703</v>
       </c>
       <c r="O15">
-        <v>22.48813530048093</v>
+        <v>19.77444139095344</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.3042088145126</v>
+        <v>17.75246367573055</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.448900491007741</v>
+        <v>3.377050112049162</v>
       </c>
       <c r="E16">
-        <v>19.64013782318494</v>
+        <v>20.76329108514346</v>
       </c>
       <c r="F16">
-        <v>28.81890366832257</v>
+        <v>23.0433371351835</v>
       </c>
       <c r="G16">
-        <v>1.999831032214836</v>
+        <v>3.577828377833937</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.75512073274498</v>
+        <v>9.721511320618074</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.58982061264034</v>
+        <v>18.41972334446436</v>
       </c>
       <c r="O16">
-        <v>21.69312739382003</v>
+        <v>19.64038819553712</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.91650357498776</v>
+        <v>17.63935895761838</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.436832077171974</v>
+        <v>3.373748132405762</v>
       </c>
       <c r="E17">
-        <v>19.46868228214494</v>
+        <v>20.72036759798152</v>
       </c>
       <c r="F17">
-        <v>28.17403467122886</v>
+        <v>22.89489757828579</v>
       </c>
       <c r="G17">
-        <v>2.002790726857243</v>
+        <v>3.578856316634697</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.50237689341766</v>
+        <v>9.643419001578156</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.54861241671202</v>
+        <v>18.41795080181823</v>
       </c>
       <c r="O17">
-        <v>21.19715387333567</v>
+        <v>19.55935054246657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.69082756069485</v>
+        <v>17.57424620092153</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.429853693967153</v>
+        <v>3.371846276580841</v>
       </c>
       <c r="E18">
-        <v>19.3695163749682</v>
+        <v>20.69578042694898</v>
       </c>
       <c r="F18">
-        <v>27.79921329759171</v>
+        <v>22.80982238482694</v>
       </c>
       <c r="G18">
-        <v>2.004501778354128</v>
+        <v>3.579455873147498</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.35491332902424</v>
+        <v>9.598313883483568</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.52540410446439</v>
+        <v>18.41716748888897</v>
       </c>
       <c r="O18">
-        <v>20.90881064023272</v>
+        <v>19.5131959059052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.61395918545938</v>
+        <v>17.55219230121373</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.427484715658842</v>
+        <v>3.371201902347521</v>
       </c>
       <c r="E19">
-        <v>19.33584915039212</v>
+        <v>20.68747353056035</v>
       </c>
       <c r="F19">
-        <v>27.67163085303858</v>
+        <v>22.78107267603194</v>
       </c>
       <c r="G19">
-        <v>2.005082653121129</v>
+        <v>3.579660302571572</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.30462455819405</v>
+        <v>9.583011144589099</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.51763079971471</v>
+        <v>18.41694292582699</v>
       </c>
       <c r="O19">
-        <v>20.81065172708324</v>
+        <v>19.49764849761759</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.95805301521822</v>
+        <v>17.65140564150812</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.438120634996697</v>
+        <v>3.374099911180926</v>
       </c>
       <c r="E20">
-        <v>19.48699155942535</v>
+        <v>20.72492651342877</v>
       </c>
       <c r="F20">
-        <v>28.24308601917252</v>
+        <v>22.91066858958834</v>
       </c>
       <c r="G20">
-        <v>2.002474771431068</v>
+        <v>3.578746030890652</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.52949821567099</v>
+        <v>9.651751912482894</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.55294798656171</v>
+        <v>18.41811506567765</v>
       </c>
       <c r="O20">
-        <v>21.25026831200683</v>
+        <v>19.56793027682025</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.08206423047887</v>
+        <v>17.98390295097518</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.473405260952909</v>
+        <v>3.383804068810788</v>
       </c>
       <c r="E21">
-        <v>19.98803668199151</v>
+        <v>20.85193624976472</v>
       </c>
       <c r="F21">
-        <v>30.11662941888303</v>
+        <v>23.34948181671971</v>
       </c>
       <c r="G21">
-        <v>1.993813254932907</v>
+        <v>3.575773376280205</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.26011627926114</v>
+        <v>9.880354698321499</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.67751541879436</v>
+        <v>18.42486906810206</v>
       </c>
       <c r="O21">
-        <v>22.69086830942974</v>
+        <v>19.80940963404558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.7971979911198</v>
+        <v>18.20023167974009</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.496110013328448</v>
+        <v>3.390119233652191</v>
       </c>
       <c r="E22">
-        <v>20.30998987154824</v>
+        <v>20.93573326866659</v>
       </c>
       <c r="F22">
-        <v>31.30709491708117</v>
+        <v>23.63826374200467</v>
       </c>
       <c r="G22">
-        <v>1.988219177023564</v>
+        <v>3.573904141822547</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.71920678372213</v>
+        <v>10.02776933896305</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.76335081305196</v>
+        <v>18.43136699876354</v>
       </c>
       <c r="O22">
-        <v>23.60584818003887</v>
+        <v>19.97096549372803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.41557222592339</v>
+        <v>18.08488431340502</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.484025820324703</v>
+        <v>3.386751358073496</v>
       </c>
       <c r="E23">
-        <v>20.13868937880338</v>
+        <v>20.89094254455937</v>
       </c>
       <c r="F23">
-        <v>30.67478630066952</v>
+        <v>23.48398707422088</v>
       </c>
       <c r="G23">
-        <v>1.991199290862304</v>
+        <v>3.574895078292204</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.47585436768821</v>
+        <v>9.949288083281896</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.71713281519052</v>
+        <v>18.4277092379231</v>
       </c>
       <c r="O23">
-        <v>23.11988976377445</v>
+        <v>19.88441433959026</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.93927716621072</v>
+        <v>17.64595960253189</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.437538202571468</v>
+        <v>3.373940882852567</v>
       </c>
       <c r="E24">
-        <v>19.47871577769513</v>
+        <v>20.72286514585461</v>
       </c>
       <c r="F24">
-        <v>28.21188061368328</v>
+        <v>22.90353768288058</v>
       </c>
       <c r="G24">
-        <v>2.002617585222949</v>
+        <v>3.57879586434155</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.51724338909797</v>
+        <v>9.647985250289642</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.55098637185469</v>
+        <v>18.41804006743426</v>
       </c>
       <c r="O24">
-        <v>21.22626525461073</v>
+        <v>19.56405002028702</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.24483944663325</v>
+        <v>17.17058545702099</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.38600064783035</v>
+        <v>3.36002362594661</v>
       </c>
       <c r="E25">
-        <v>18.74628793447027</v>
+        <v>20.54550351451988</v>
       </c>
       <c r="F25">
-        <v>25.53382337630071</v>
+        <v>22.28945386176303</v>
       </c>
       <c r="G25">
-        <v>2.015272470904271</v>
+        <v>3.583321616503123</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.4031740067803</v>
+        <v>9.315984459540672</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.39061704266972</v>
+        <v>18.41665105974252</v>
       </c>
       <c r="O25">
-        <v>19.3594925657472</v>
+        <v>19.2360994790692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.82143350898454</v>
+        <v>16.91214862876053</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.349707596532582</v>
+        <v>2.347014317249051</v>
       </c>
       <c r="E2">
-        <v>20.41886422545918</v>
+        <v>18.19312434141519</v>
       </c>
       <c r="F2">
-        <v>21.85140057643691</v>
+        <v>23.5763829563005</v>
       </c>
       <c r="G2">
-        <v>3.586930640635223</v>
+        <v>2.024934863430683</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.067296528280622</v>
+        <v>10.51310246234878</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.42349533107253</v>
+        <v>14.2885182946116</v>
       </c>
       <c r="O2">
-        <v>19.01137190211761</v>
+        <v>18.01751937285022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.58666863510156</v>
+        <v>15.9582235460696</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.342681790691891</v>
+        <v>2.320034982676451</v>
       </c>
       <c r="E3">
-        <v>20.33578580041957</v>
+        <v>17.81177451702228</v>
       </c>
       <c r="F3">
-        <v>21.56521071399468</v>
+        <v>22.20047613514137</v>
       </c>
       <c r="G3">
-        <v>3.589550716205599</v>
+        <v>2.031722235807524</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.897090711359246</v>
+        <v>9.86612200211683</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.43308425783035</v>
+        <v>14.22915935281433</v>
       </c>
       <c r="O3">
-        <v>18.87025949664855</v>
+        <v>17.08782385017456</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.44388922565025</v>
+        <v>15.34862805492022</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.338353761092133</v>
+        <v>2.303227243972338</v>
       </c>
       <c r="E4">
-        <v>20.28622281327175</v>
+        <v>17.57524446635506</v>
       </c>
       <c r="F4">
-        <v>21.39537748148832</v>
+        <v>21.33319359035275</v>
       </c>
       <c r="G4">
-        <v>3.591245901030725</v>
+        <v>2.036014921381617</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.792107186707812</v>
+        <v>9.447292650267663</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.44142747415911</v>
+        <v>14.1975131040078</v>
       </c>
       <c r="O4">
-        <v>18.78936180076191</v>
+        <v>16.50865179035628</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.38611789185491</v>
+        <v>15.09443054420671</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.336586955487837</v>
+        <v>2.296322263184131</v>
       </c>
       <c r="E5">
-        <v>20.26640357444996</v>
+        <v>17.47838783329553</v>
       </c>
       <c r="F5">
-        <v>21.32774102131831</v>
+        <v>20.97448809685368</v>
       </c>
       <c r="G5">
-        <v>3.591958513606826</v>
+        <v>2.037796715599764</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.749259879744447</v>
+        <v>9.271203764003513</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.44544696193285</v>
+        <v>14.18581632927818</v>
       </c>
       <c r="O5">
-        <v>18.75787231230001</v>
+        <v>16.27084392888211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.37655191411471</v>
+        <v>15.05187949798236</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.336293405055734</v>
+        <v>2.295172489293726</v>
       </c>
       <c r="E6">
-        <v>20.26313584546145</v>
+        <v>17.46228045466654</v>
       </c>
       <c r="F6">
-        <v>21.31660757344845</v>
+        <v>20.9146188752474</v>
       </c>
       <c r="G6">
-        <v>3.592078161859515</v>
+        <v>2.038094571850728</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.742142755833502</v>
+        <v>9.241638087726928</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.44615187332622</v>
+        <v>14.18394628125706</v>
       </c>
       <c r="O6">
-        <v>18.75273359142321</v>
+        <v>16.23125793629343</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.44310834093394</v>
+        <v>15.34522294004726</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.338329945282668</v>
+        <v>2.303134339427358</v>
       </c>
       <c r="E7">
-        <v>20.28595397485192</v>
+        <v>17.57393994619241</v>
       </c>
       <c r="F7">
-        <v>21.39445883000249</v>
+        <v>21.32837679265819</v>
       </c>
       <c r="G7">
-        <v>3.591255423164608</v>
+        <v>2.036038818440424</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.791529526443357</v>
+        <v>9.444939741700153</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.44147917114306</v>
+        <v>14.19735051204898</v>
       </c>
       <c r="O7">
-        <v>18.78893110214992</v>
+        <v>16.50545143751392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.74024409268024</v>
+        <v>16.58831066069195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.347288313100139</v>
+        <v>2.33776522370522</v>
       </c>
       <c r="E8">
-        <v>20.38992690353857</v>
+        <v>18.06220478910836</v>
       </c>
       <c r="F8">
-        <v>21.75155600042121</v>
+        <v>23.10682940153915</v>
       </c>
       <c r="G8">
-        <v>3.587816144433467</v>
+        <v>2.027249784329253</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.008740545701897</v>
+        <v>10.29450749694369</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.4262932202203</v>
+        <v>14.26705057779117</v>
       </c>
       <c r="O8">
-        <v>18.9615439824977</v>
+        <v>17.69885704469701</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.33075432790666</v>
+        <v>18.82906219749756</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.364723477694168</v>
+        <v>2.403533969704255</v>
       </c>
       <c r="E9">
-        <v>20.60467206695721</v>
+        <v>18.99543544966214</v>
       </c>
       <c r="F9">
-        <v>22.49437261835268</v>
+        <v>26.40407408813755</v>
       </c>
       <c r="G9">
-        <v>3.581754331011983</v>
+        <v>2.010959504900462</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.428602086572072</v>
+        <v>11.78924118796663</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.41590285899686</v>
+        <v>14.44213906247387</v>
       </c>
       <c r="O9">
-        <v>19.34407344892386</v>
+        <v>19.96231993008381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.76536026326217</v>
+        <v>20.34808464365489</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.377426520612054</v>
+        <v>2.450272477720103</v>
       </c>
       <c r="E10">
-        <v>20.76820229389463</v>
+        <v>19.65962544711956</v>
       </c>
       <c r="F10">
-        <v>23.060313786113</v>
+        <v>28.89196027737667</v>
       </c>
       <c r="G10">
-        <v>3.577712207763242</v>
+        <v>1.999494455724735</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.730395562072957</v>
+        <v>12.78367776383555</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.41995754548472</v>
+        <v>14.5945897345089</v>
       </c>
       <c r="O10">
-        <v>19.64969585873301</v>
+        <v>21.74930763750745</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.96240745138817</v>
+        <v>21.01063182823686</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.3831767752078</v>
+        <v>2.471139208058355</v>
       </c>
       <c r="E11">
-        <v>20.84365844403359</v>
+        <v>19.95588158182823</v>
       </c>
       <c r="F11">
-        <v>23.3209202199056</v>
+        <v>29.99722279044444</v>
       </c>
       <c r="G11">
-        <v>3.575961705122901</v>
+        <v>1.994370442741169</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.865652826081782</v>
+        <v>13.21385003067353</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.42430965126229</v>
+        <v>14.66918623046536</v>
       </c>
       <c r="O11">
-        <v>19.79353924253394</v>
+        <v>22.59908013898677</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.03686238775579</v>
+        <v>21.25738967807794</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.385349669950313</v>
+        <v>2.478980208912436</v>
       </c>
       <c r="E12">
-        <v>20.87236871316547</v>
+        <v>20.06712838222577</v>
       </c>
       <c r="F12">
-        <v>23.41995606320362</v>
+        <v>30.4099148762796</v>
       </c>
       <c r="G12">
-        <v>3.575311454498589</v>
+        <v>1.992441679783935</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.916533676767621</v>
+        <v>13.37358516749035</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.42631544478005</v>
+        <v>14.69819290292012</v>
       </c>
       <c r="O12">
-        <v>19.84865434426891</v>
+        <v>22.91630596101927</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.02083547514422</v>
+        <v>21.20443026190954</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.384881911069007</v>
+        <v>2.477294271186092</v>
       </c>
       <c r="E13">
-        <v>20.86617962976042</v>
+        <v>20.04321251935854</v>
       </c>
       <c r="F13">
-        <v>23.39861300391395</v>
+        <v>30.32129213133568</v>
       </c>
       <c r="G13">
-        <v>3.575450937101347</v>
+        <v>1.992856584377771</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.905591321787648</v>
+        <v>13.3393234125468</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.42586759717059</v>
+        <v>14.69191199528281</v>
       </c>
       <c r="O13">
-        <v>19.83675641646426</v>
+        <v>22.84818661590641</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.96853654376946</v>
+        <v>21.03101576250717</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.383355635748835</v>
+        <v>2.471785531340853</v>
       </c>
       <c r="E14">
-        <v>20.84601781147066</v>
+        <v>19.96505323526053</v>
       </c>
       <c r="F14">
-        <v>23.32906153778586</v>
+        <v>30.0312916284464</v>
       </c>
       <c r="G14">
-        <v>3.575907955941023</v>
+        <v>1.994211539446092</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.869845856437996</v>
+        <v>13.22705470481173</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.42446751612684</v>
+        <v>14.67155740070606</v>
       </c>
       <c r="O14">
-        <v>19.79806095047713</v>
+        <v>22.62526923048094</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.93647878565488</v>
+        <v>20.92425510738358</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.382420133439527</v>
+        <v>2.468403242884844</v>
       </c>
       <c r="E15">
-        <v>20.83368541978606</v>
+        <v>19.91705356258248</v>
       </c>
       <c r="F15">
-        <v>23.28650175243444</v>
+        <v>29.85290044707247</v>
       </c>
       <c r="G15">
-        <v>3.576189535546929</v>
+        <v>1.995042949008762</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.84790536443607</v>
+        <v>13.15787614325331</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.42365642833703</v>
+        <v>14.65918853396477</v>
       </c>
       <c r="O15">
-        <v>19.77444139095344</v>
+        <v>22.48813530048096</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.75246367573055</v>
+        <v>20.3042088145126</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.377050112049162</v>
+        <v>2.44890049100785</v>
       </c>
       <c r="E16">
-        <v>20.76329108514346</v>
+        <v>19.64013782318509</v>
       </c>
       <c r="F16">
-        <v>23.0433371351835</v>
+        <v>28.81890366832262</v>
       </c>
       <c r="G16">
-        <v>3.577828377833937</v>
+        <v>1.999831032214969</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.721511320618074</v>
+        <v>12.75512073274503</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.41972334446436</v>
+        <v>14.58982061264036</v>
       </c>
       <c r="O16">
-        <v>19.64038819553712</v>
+        <v>21.69312739382007</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.63935895761838</v>
+        <v>19.91650357498775</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.373748132405762</v>
+        <v>2.436832077172039</v>
       </c>
       <c r="E17">
-        <v>20.72036759798152</v>
+        <v>19.46868228214485</v>
       </c>
       <c r="F17">
-        <v>22.89489757828579</v>
+        <v>28.17403467122886</v>
       </c>
       <c r="G17">
-        <v>3.578856316634697</v>
+        <v>2.002790726857109</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.643419001578156</v>
+        <v>12.50237689341768</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.41795080181823</v>
+        <v>14.54861241671205</v>
       </c>
       <c r="O17">
-        <v>19.55935054246657</v>
+        <v>21.19715387333566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.57424620092153</v>
+        <v>19.69082756069484</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.371846276580841</v>
+        <v>2.429853693967078</v>
       </c>
       <c r="E18">
-        <v>20.69578042694898</v>
+        <v>19.36951637496806</v>
       </c>
       <c r="F18">
-        <v>22.80982238482694</v>
+        <v>27.7992132975916</v>
       </c>
       <c r="G18">
-        <v>3.579455873147498</v>
+        <v>2.004501778353995</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.598313883483568</v>
+        <v>12.35491332902419</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.41716748888897</v>
+        <v>14.52540410446438</v>
       </c>
       <c r="O18">
-        <v>19.5131959059052</v>
+        <v>20.90881064023263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.55219230121373</v>
+        <v>19.61395918545939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.371201902347521</v>
+        <v>2.427484715658728</v>
       </c>
       <c r="E19">
-        <v>20.68747353056035</v>
+        <v>19.33584915039212</v>
       </c>
       <c r="F19">
-        <v>22.78107267603194</v>
+        <v>27.67163085303864</v>
       </c>
       <c r="G19">
-        <v>3.579660302571572</v>
+        <v>2.00508265312126</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.583011144589099</v>
+        <v>12.30462455819409</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.41694292582699</v>
+        <v>14.5176307997147</v>
       </c>
       <c r="O19">
-        <v>19.49764849761759</v>
+        <v>20.8106517270833</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.65140564150812</v>
+        <v>19.95805301521819</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.374099911180926</v>
+        <v>2.438120634996703</v>
       </c>
       <c r="E20">
-        <v>20.72492651342877</v>
+        <v>19.4869915594253</v>
       </c>
       <c r="F20">
-        <v>22.91066858958834</v>
+        <v>28.2430860191725</v>
       </c>
       <c r="G20">
-        <v>3.578746030890652</v>
+        <v>2.002474771431066</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.651751912482894</v>
+        <v>12.529498215671</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.41811506567765</v>
+        <v>14.55294798656175</v>
       </c>
       <c r="O20">
-        <v>19.56793027682025</v>
+        <v>21.25026831200681</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.98390295097518</v>
+        <v>21.08206423047888</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.383804068810788</v>
+        <v>2.473405260953054</v>
       </c>
       <c r="E21">
-        <v>20.85193624976472</v>
+        <v>19.98803668199146</v>
       </c>
       <c r="F21">
-        <v>23.34948181671971</v>
+        <v>30.11662941888308</v>
       </c>
       <c r="G21">
-        <v>3.575773376280205</v>
+        <v>1.993813254932906</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.880354698321499</v>
+        <v>13.26011627926116</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.42486906810206</v>
+        <v>14.67751541879433</v>
       </c>
       <c r="O21">
-        <v>19.80940963404558</v>
+        <v>22.69086830942977</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.20023167974009</v>
+        <v>21.79719799111981</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.390119233652191</v>
+        <v>2.49611001332839</v>
       </c>
       <c r="E22">
-        <v>20.93573326866659</v>
+        <v>20.30998987154842</v>
       </c>
       <c r="F22">
-        <v>23.63826374200467</v>
+        <v>31.30709491708112</v>
       </c>
       <c r="G22">
-        <v>3.573904141822547</v>
+        <v>1.988219177023698</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.02776933896305</v>
+        <v>13.71920678372206</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.43136699876354</v>
+        <v>14.76335081305203</v>
       </c>
       <c r="O22">
-        <v>19.97096549372803</v>
+        <v>23.60584818003884</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.08488431340502</v>
+        <v>21.41557222592338</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.386751358073496</v>
+        <v>2.484025820324804</v>
       </c>
       <c r="E23">
-        <v>20.89094254455937</v>
+        <v>20.13868937880356</v>
       </c>
       <c r="F23">
-        <v>23.48398707422088</v>
+        <v>30.67478630066957</v>
       </c>
       <c r="G23">
-        <v>3.574895078292204</v>
+        <v>1.99119929086244</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.949288083281896</v>
+        <v>13.47585436768817</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.4277092379231</v>
+        <v>14.71713281519053</v>
       </c>
       <c r="O23">
-        <v>19.88441433959026</v>
+        <v>23.11988976377446</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.64595960253189</v>
+        <v>19.93927716621071</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.373940882852567</v>
+        <v>2.437538202571582</v>
       </c>
       <c r="E24">
-        <v>20.72286514585461</v>
+        <v>19.4787157776951</v>
       </c>
       <c r="F24">
-        <v>22.90353768288058</v>
+        <v>28.21188061368331</v>
       </c>
       <c r="G24">
-        <v>3.57879586434155</v>
+        <v>2.002617585222685</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.647985250289642</v>
+        <v>12.51724338909798</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.41804006743426</v>
+        <v>14.5509863718547</v>
       </c>
       <c r="O24">
-        <v>19.56405002028702</v>
+        <v>21.22626525461075</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.17058545702099</v>
+        <v>18.24483944663323</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.36002362594661</v>
+        <v>2.38600064783046</v>
       </c>
       <c r="E25">
-        <v>20.54550351451988</v>
+        <v>18.74628793447038</v>
       </c>
       <c r="F25">
-        <v>22.28945386176303</v>
+        <v>25.53382337630067</v>
       </c>
       <c r="G25">
-        <v>3.583321616503123</v>
+        <v>2.01527247090387</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.315984459540672</v>
+        <v>11.40317400678036</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.41665105974252</v>
+        <v>14.39061704266967</v>
       </c>
       <c r="O25">
-        <v>19.2360994790692</v>
+        <v>19.35949256574716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.91214862876053</v>
+        <v>14.07278731601823</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.347014317249051</v>
+        <v>2.500375549644928</v>
       </c>
       <c r="E2">
-        <v>18.19312434141519</v>
+        <v>18.5160913980792</v>
       </c>
       <c r="F2">
-        <v>23.5763829563005</v>
+        <v>36.71967132730969</v>
       </c>
       <c r="G2">
-        <v>2.024934863430683</v>
+        <v>57.41759050916087</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.244419382194554</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.664192520086599</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.37103010643807</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.35652090654925</v>
       </c>
       <c r="L2">
-        <v>10.51310246234878</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.2885182946116</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.01751937285022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>40.2357734030234</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.9582235460696</v>
+        <v>13.16544400795476</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.320034982676451</v>
+        <v>2.33880070534905</v>
       </c>
       <c r="E3">
-        <v>17.81177451702228</v>
+        <v>17.69883850352825</v>
       </c>
       <c r="F3">
-        <v>22.20047613514137</v>
+        <v>34.03668655451155</v>
       </c>
       <c r="G3">
-        <v>2.031722235807524</v>
+        <v>53.19765216361747</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.827038862806956</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.778288042967253</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.52172307531692</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>29.72949323502456</v>
       </c>
       <c r="L3">
-        <v>9.86612200211683</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.22915935281433</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.08782385017456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>37.59443442601555</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.34862805492022</v>
+        <v>12.57296162736148</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.303227243972338</v>
+        <v>2.236860018032641</v>
       </c>
       <c r="E4">
-        <v>17.57524446635506</v>
+        <v>17.17914135170806</v>
       </c>
       <c r="F4">
-        <v>21.33319359035275</v>
+        <v>32.31842970150292</v>
       </c>
       <c r="G4">
-        <v>2.036014921381617</v>
+        <v>50.4948877596149</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.566302718431532</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.849876986397267</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.98914627433533</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>28.70865645639985</v>
       </c>
       <c r="L4">
-        <v>9.447292650267663</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.1975131040078</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.50865179035628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>35.88579947488629</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.09443054420671</v>
+        <v>12.31760667384562</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.296322263184131</v>
+        <v>2.207647690448244</v>
       </c>
       <c r="E5">
-        <v>17.47838783329553</v>
+        <v>16.9720928003589</v>
       </c>
       <c r="F5">
-        <v>20.97448809685368</v>
+        <v>31.63842688071253</v>
       </c>
       <c r="G5">
-        <v>2.037796715599764</v>
+        <v>49.35214423621964</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.459489326112899</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.881597046607849</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.76622376498687</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>28.33262531143901</v>
       </c>
       <c r="L5">
-        <v>9.271203764003513</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.18581632927818</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.27084392888211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>35.18791710808474</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05187949798236</v>
+        <v>12.26856258942334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.295172489293726</v>
+        <v>2.202965547585511</v>
       </c>
       <c r="E6">
-        <v>17.46228045466654</v>
+        <v>16.94876902199557</v>
       </c>
       <c r="F6">
-        <v>20.9146188752474</v>
+        <v>31.51576712298258</v>
       </c>
       <c r="G6">
-        <v>2.038094571850728</v>
+        <v>49.14501744211407</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.442485713779483</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.889653474181018</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.72510840028584</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>28.3250080553243</v>
       </c>
       <c r="L6">
-        <v>9.241638087726928</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.18394628125706</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.23125793629343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>35.0955722553599</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.34522294004726</v>
+        <v>12.55330938635788</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.303134339427358</v>
+        <v>2.23288177341156</v>
       </c>
       <c r="E7">
-        <v>17.57393994619241</v>
+        <v>17.20671021606339</v>
       </c>
       <c r="F7">
-        <v>21.32837679265819</v>
+        <v>32.28487439527847</v>
       </c>
       <c r="G7">
-        <v>2.036038818440424</v>
+        <v>50.43816556498298</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.567091766629177</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.857532929468863</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.97564294694615</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>28.85170016186029</v>
       </c>
       <c r="L7">
-        <v>9.444939741700153</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.19735051204898</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.50545143751392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>35.94266694059835</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.58831066069195</v>
+        <v>13.74753313210757</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.33776522370522</v>
+        <v>2.44103270827894</v>
       </c>
       <c r="E8">
-        <v>18.06220478910836</v>
+        <v>18.27557051767679</v>
       </c>
       <c r="F8">
-        <v>23.10682940153915</v>
+        <v>35.78063801724922</v>
       </c>
       <c r="G8">
-        <v>2.027249784329253</v>
+        <v>55.93597554373155</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.104386498052083</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.712133959094188</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>14.06778197462869</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>30.98569282790483</v>
       </c>
       <c r="L8">
-        <v>10.29450749694369</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.26705057779117</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.69885704469701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>39.42347243134802</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.82906219749756</v>
+        <v>15.83602962302571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.403533969704255</v>
+        <v>2.834618880849491</v>
       </c>
       <c r="E9">
-        <v>18.99543544966214</v>
+        <v>20.18214909059341</v>
       </c>
       <c r="F9">
-        <v>26.40407408813755</v>
+        <v>42.1261957395693</v>
       </c>
       <c r="G9">
-        <v>2.010959504900462</v>
+        <v>65.92176740598251</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.123440511193357</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.427171790865345</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>16.41000478245909</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>34.73672047248405</v>
       </c>
       <c r="L9">
-        <v>11.78924118796663</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.44213906247387</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>19.96231993008381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>45.46125683287862</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.34808464365489</v>
+        <v>17.259395879391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.450272477720103</v>
+        <v>3.070747417101186</v>
       </c>
       <c r="E10">
-        <v>19.65962544711956</v>
+        <v>21.92398241347795</v>
       </c>
       <c r="F10">
-        <v>28.89196027737667</v>
+        <v>46.23298933441235</v>
       </c>
       <c r="G10">
-        <v>1.999494455724735</v>
+        <v>72.34701762851495</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.832020496727222</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.227890675926257</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>17.99900469433011</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>37.66686141766569</v>
       </c>
       <c r="L10">
-        <v>12.78367776383555</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.5945897345089</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>21.74930763750745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>49.28137004368969</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.01063182823686</v>
+        <v>18.39060372405619</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.471139208058355</v>
+        <v>2.848400970666031</v>
       </c>
       <c r="E11">
-        <v>19.95588158182823</v>
+        <v>26.67230452351252</v>
       </c>
       <c r="F11">
-        <v>29.99722279044444</v>
+        <v>45.97270789413</v>
       </c>
       <c r="G11">
-        <v>1.994370442741169</v>
+        <v>71.59359455584428</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.260253661785894</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.147340777335568</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>17.79749429647602</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>41.25925126327525</v>
       </c>
       <c r="L11">
-        <v>13.21385003067353</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.66918623046536</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>22.59908013898677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>48.76826056473416</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.25738967807794</v>
+        <v>19.08303193903674</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.478980208912436</v>
+        <v>2.672402716089331</v>
       </c>
       <c r="E12">
-        <v>20.06712838222577</v>
+        <v>30.71841767448346</v>
       </c>
       <c r="F12">
-        <v>30.4099148762796</v>
+        <v>44.94268051689856</v>
       </c>
       <c r="G12">
-        <v>1.992441679783935</v>
+        <v>69.69932748143454</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.91388764134455</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.104528666399593</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>17.31514936771467</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>43.53112514971959</v>
       </c>
       <c r="L12">
-        <v>13.37358516749035</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.69819290292012</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>22.91630596101927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>47.46104516045611</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.20443026190954</v>
+        <v>19.48353494023048</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.477294271186092</v>
+        <v>2.52237097364552</v>
       </c>
       <c r="E13">
-        <v>20.04321251935854</v>
+        <v>34.47382838557803</v>
       </c>
       <c r="F13">
-        <v>30.32129213133568</v>
+        <v>43.18163418788233</v>
       </c>
       <c r="G13">
-        <v>1.992856584377771</v>
+        <v>66.67801437343918</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.706119399083661</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.099876354456599</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>16.55328315621733</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>45.1648524924292</v>
       </c>
       <c r="L13">
-        <v>13.3393234125468</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.69191199528281</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>22.84818661590641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>45.50432923032186</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.03101576250717</v>
+        <v>19.63451319711037</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.471785531340853</v>
+        <v>2.442933359523673</v>
       </c>
       <c r="E14">
-        <v>19.96505323526053</v>
+        <v>37.02693572484043</v>
       </c>
       <c r="F14">
-        <v>30.0312916284464</v>
+        <v>41.58994167505571</v>
       </c>
       <c r="G14">
-        <v>1.994211539446092</v>
+        <v>64.00494732101802</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.338619652586143</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.115820674237783</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>15.88109885268487</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>46.0774772544421</v>
       </c>
       <c r="L14">
-        <v>13.22705470481173</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.67155740070606</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>22.62526923048094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>43.83046141008726</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.92425510738358</v>
+        <v>19.60392836772172</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.468403242884844</v>
+        <v>2.420988397292955</v>
       </c>
       <c r="E15">
-        <v>19.91705356258248</v>
+        <v>37.56965935761768</v>
       </c>
       <c r="F15">
-        <v>29.85290044707247</v>
+        <v>41.02906584016077</v>
       </c>
       <c r="G15">
-        <v>1.995042949008762</v>
+        <v>63.08321339594299</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.47546453315074</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.131784781426097</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>15.65026711910847</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>46.2129982968198</v>
       </c>
       <c r="L15">
-        <v>13.15787614325331</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.65918853396477</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>22.48813530048096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>43.29796009378457</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.3042088145126</v>
+        <v>18.96959752828387</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.44890049100785</v>
+        <v>2.335577925880846</v>
       </c>
       <c r="E16">
-        <v>19.64013782318509</v>
+        <v>36.36282001607301</v>
       </c>
       <c r="F16">
-        <v>28.81890366832262</v>
+        <v>39.48618501822912</v>
       </c>
       <c r="G16">
-        <v>1.999831032214969</v>
+        <v>60.68851783069253</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.104679127850916</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.223636228148837</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>15.05895727860066</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>44.86106912015156</v>
       </c>
       <c r="L16">
-        <v>12.75512073274503</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.58982061264036</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>21.69312739382007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>42.01653270508464</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.91650357498775</v>
+        <v>18.38559498722625</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.436832077172039</v>
+        <v>2.304726036554167</v>
       </c>
       <c r="E17">
-        <v>19.46868228214485</v>
+        <v>33.97336231228939</v>
       </c>
       <c r="F17">
-        <v>28.17403467122886</v>
+        <v>39.18424661962745</v>
       </c>
       <c r="G17">
-        <v>2.002790726857109</v>
+        <v>60.33593938367189</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.428760804836903</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.286144222837992</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>14.97909073912706</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>43.30052993293629</v>
       </c>
       <c r="L17">
-        <v>12.50237689341768</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.54861241671205</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>21.19715387333566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>41.94972025664901</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.69082756069484</v>
+        <v>17.79963623156585</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.429853693967078</v>
+        <v>2.360740864859337</v>
       </c>
       <c r="E18">
-        <v>19.36951637496806</v>
+        <v>30.35496021961334</v>
       </c>
       <c r="F18">
-        <v>27.7992132975916</v>
+        <v>39.95849441619313</v>
       </c>
       <c r="G18">
-        <v>2.004501778353995</v>
+        <v>61.77490538751068</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.514553541063452</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.320960416228278</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>15.34800323246987</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>41.29173854200407</v>
       </c>
       <c r="L18">
-        <v>12.35491332902419</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.52540410446438</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.90881064023263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>42.89809868176926</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.61395918545939</v>
+        <v>17.24333684682871</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.427484715658728</v>
+        <v>2.538323617954042</v>
       </c>
       <c r="E19">
-        <v>19.33584915039212</v>
+        <v>26.32542370946673</v>
       </c>
       <c r="F19">
-        <v>27.67163085303864</v>
+        <v>41.50776746192151</v>
       </c>
       <c r="G19">
-        <v>2.00508265312126</v>
+        <v>64.49234863449237</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.738856306877114</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.34323155580034</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>16.03515858967386</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>39.34704593349569</v>
       </c>
       <c r="L19">
-        <v>12.30462455819409</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.5176307997147</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.8106517270833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>44.67491436304871</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.95805301521819</v>
+        <v>16.86213960959079</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.438120634996703</v>
+        <v>2.998990089313922</v>
       </c>
       <c r="E20">
-        <v>19.4869915594253</v>
+        <v>21.56869300976478</v>
       </c>
       <c r="F20">
-        <v>28.2430860191725</v>
+        <v>45.10750465173365</v>
       </c>
       <c r="G20">
-        <v>2.002474771431066</v>
+        <v>70.57472827179677</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.651849720624087</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.302861272777864</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>17.55989838417229</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>37.30199155943014</v>
       </c>
       <c r="L20">
-        <v>12.529498215671</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.55294798656175</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>21.25026831200681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>48.44243906974791</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.08206423047888</v>
+        <v>17.81510770056155</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.473405260953054</v>
+        <v>3.246462233951318</v>
       </c>
       <c r="E21">
-        <v>19.98803668199146</v>
+        <v>22.22505905088068</v>
       </c>
       <c r="F21">
-        <v>30.11662941888308</v>
+        <v>48.56648575677001</v>
       </c>
       <c r="G21">
-        <v>1.993813254932906</v>
+        <v>76.05355923800951</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.241206865054783</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.147253660904969</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>18.91860621503863</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>39.02720257103864</v>
       </c>
       <c r="L21">
-        <v>13.26011627926116</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.67751541879433</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>22.69086830942977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>51.62301324482493</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.79719799111981</v>
+        <v>18.45488543545311</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.49611001332839</v>
+        <v>3.388917307159287</v>
       </c>
       <c r="E22">
-        <v>20.30998987154842</v>
+        <v>22.82812044813801</v>
       </c>
       <c r="F22">
-        <v>31.30709491708112</v>
+        <v>50.6774105613322</v>
       </c>
       <c r="G22">
-        <v>1.988219177023698</v>
+        <v>79.38280367961916</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.608145666820958</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.036835536073156</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>19.74416968394492</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>40.10788270777307</v>
       </c>
       <c r="L22">
-        <v>13.71920678372206</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.76335081305203</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>23.60584818003884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>53.43800583919543</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.41557222592338</v>
+        <v>18.12950664081954</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.484025820324804</v>
+        <v>3.315717001959342</v>
       </c>
       <c r="E23">
-        <v>20.13868937880356</v>
+        <v>22.48120890797654</v>
       </c>
       <c r="F23">
-        <v>30.67478630066957</v>
+        <v>49.57264295285702</v>
       </c>
       <c r="G23">
-        <v>1.99119929086244</v>
+        <v>77.64316856597124</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.409224665977037</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.086641490062677</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>19.31289896763639</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>39.39623908453899</v>
       </c>
       <c r="L23">
-        <v>13.47585436768817</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.71713281519053</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>23.11988976377446</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>52.42112976521472</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.93927716621071</v>
+        <v>16.8177032253797</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.437538202571582</v>
+        <v>3.033500599138665</v>
       </c>
       <c r="E24">
-        <v>19.4787157776951</v>
+        <v>21.18523456818825</v>
       </c>
       <c r="F24">
-        <v>28.21188061368331</v>
+        <v>45.27565053961936</v>
       </c>
       <c r="G24">
-        <v>2.002617585222685</v>
+        <v>70.87488692280452</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.662665178160683</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.291239837265334</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>17.6357745756986</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>36.85588085397512</v>
       </c>
       <c r="L24">
-        <v>12.51724338909798</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.5509863718547</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>21.22626525461075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>48.51084417612712</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.24483944663323</v>
+        <v>15.2765706450816</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.38600064783046</v>
+        <v>2.724902010491898</v>
       </c>
       <c r="E25">
-        <v>18.74628793447038</v>
+        <v>19.7276025087571</v>
       </c>
       <c r="F25">
-        <v>25.53382337630067</v>
+        <v>40.43146848762669</v>
       </c>
       <c r="G25">
-        <v>2.01527247090387</v>
+        <v>63.24901718002955</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.854538301205668</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.515665449616732</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>15.74862642626144</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>33.97908057556582</v>
       </c>
       <c r="L25">
-        <v>11.40317400678036</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.39061704266967</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>19.35949256574716</v>
+        <v>43.99886174046396</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.07278731601823</v>
+        <v>15.08389199791237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.500375549644928</v>
+        <v>2.810717156884938</v>
       </c>
       <c r="E2">
-        <v>18.5160913980792</v>
+        <v>16.17787144435165</v>
       </c>
       <c r="F2">
-        <v>36.71967132730969</v>
+        <v>37.92376558957601</v>
       </c>
       <c r="G2">
-        <v>57.41759050916087</v>
+        <v>59.97981856937272</v>
       </c>
       <c r="H2">
-        <v>4.244419382194554</v>
+        <v>3.969686708780644</v>
       </c>
       <c r="I2">
-        <v>3.664192520086599</v>
+        <v>3.398166711200889</v>
       </c>
       <c r="J2">
-        <v>14.37103010643807</v>
+        <v>15.55984373397648</v>
       </c>
       <c r="K2">
-        <v>31.35652090654925</v>
+        <v>21.98861687974609</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.14580061882979</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.62716127502086</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>40.2357734030234</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>36.11059298421097</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.16544400795476</v>
+        <v>14.14193685379644</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.33880070534905</v>
+        <v>2.725088695269287</v>
       </c>
       <c r="E3">
-        <v>17.69883850352825</v>
+        <v>15.5144804382734</v>
       </c>
       <c r="F3">
-        <v>34.03668655451155</v>
+        <v>35.30003825223128</v>
       </c>
       <c r="G3">
-        <v>53.19765216361747</v>
+        <v>55.64534048651834</v>
       </c>
       <c r="H3">
-        <v>3.827038862806956</v>
+        <v>3.586801908153703</v>
       </c>
       <c r="I3">
-        <v>3.778288042967253</v>
+        <v>3.485015649471177</v>
       </c>
       <c r="J3">
-        <v>13.52172307531692</v>
+        <v>14.74243798337185</v>
       </c>
       <c r="K3">
-        <v>29.72949323502456</v>
+        <v>21.00186152051947</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.12394220409857</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.14251874403909</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>37.59443442601555</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>33.67818594179359</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57296162736148</v>
+        <v>13.52758375569688</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.236860018032641</v>
+        <v>2.672459802289866</v>
       </c>
       <c r="E4">
-        <v>17.17914135170806</v>
+        <v>15.09541351076214</v>
       </c>
       <c r="F4">
-        <v>32.31842970150292</v>
+        <v>33.68754304468937</v>
       </c>
       <c r="G4">
-        <v>50.4948877596149</v>
+        <v>52.86625892567164</v>
       </c>
       <c r="H4">
-        <v>3.566302718431532</v>
+        <v>3.347078919230225</v>
       </c>
       <c r="I4">
-        <v>3.849876986397267</v>
+        <v>3.539978720720888</v>
       </c>
       <c r="J4">
-        <v>12.98914627433533</v>
+        <v>14.22457431288194</v>
       </c>
       <c r="K4">
-        <v>28.70865645639985</v>
+        <v>20.39550321992633</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.50143157932998</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.84574945955654</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>35.88579947488629</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>32.10305867006583</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31760667384562</v>
+        <v>13.26454764473335</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.207647690448244</v>
+        <v>2.649790587569297</v>
       </c>
       <c r="E5">
-        <v>16.9720928003589</v>
+        <v>14.9257478373994</v>
       </c>
       <c r="F5">
-        <v>31.63842688071253</v>
+        <v>33.00948740830844</v>
       </c>
       <c r="G5">
-        <v>49.35214423621964</v>
+        <v>51.69444880921549</v>
       </c>
       <c r="H5">
-        <v>3.459489326112899</v>
+        <v>3.248511733065854</v>
       </c>
       <c r="I5">
-        <v>3.881597046607849</v>
+        <v>3.565628830578044</v>
       </c>
       <c r="J5">
-        <v>12.76622376498687</v>
+        <v>14.00739582551365</v>
       </c>
       <c r="K5">
-        <v>28.33262531143901</v>
+        <v>20.17617709968308</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.26870447510422</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.74750718148957</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>35.18791710808474</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>31.45516213224709</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.26856258942334</v>
+        <v>13.21588394469282</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.202965547585511</v>
+        <v>2.644558544089567</v>
       </c>
       <c r="E6">
-        <v>16.94876902199557</v>
+        <v>14.90241762128333</v>
       </c>
       <c r="F6">
-        <v>31.51576712298258</v>
+        <v>32.88929964647716</v>
       </c>
       <c r="G6">
-        <v>49.14501744211407</v>
+        <v>51.48670224352293</v>
       </c>
       <c r="H6">
-        <v>3.442485713779483</v>
+        <v>3.232518332020696</v>
       </c>
       <c r="I6">
-        <v>3.889653474181018</v>
+        <v>3.573561976538592</v>
       </c>
       <c r="J6">
-        <v>12.72510840028584</v>
+        <v>13.96833502573041</v>
       </c>
       <c r="K6">
-        <v>28.3250080553243</v>
+        <v>20.17337915712634</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.25307977019047</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.75867123376937</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>35.0955722553599</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>31.36414860625021</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.55330938635788</v>
+        <v>13.51570455173154</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.23288177341156</v>
+        <v>2.658419240397896</v>
       </c>
       <c r="E7">
-        <v>17.20671021606339</v>
+        <v>15.09836314317003</v>
       </c>
       <c r="F7">
-        <v>32.28487439527847</v>
+        <v>33.61268893305329</v>
       </c>
       <c r="G7">
-        <v>50.43816556498298</v>
+        <v>52.88040712808061</v>
       </c>
       <c r="H7">
-        <v>3.567091766629177</v>
+        <v>3.345640906526071</v>
       </c>
       <c r="I7">
-        <v>3.857532929468863</v>
+        <v>3.549930611359037</v>
       </c>
       <c r="J7">
-        <v>12.97564294694615</v>
+        <v>14.12446708155865</v>
       </c>
       <c r="K7">
-        <v>28.85170016186029</v>
+        <v>20.48967747256927</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.56520158607987</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.92324210938596</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>35.94266694059835</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>32.12770693533647</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.74753313210757</v>
+        <v>14.76284515717631</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.44103270827894</v>
+        <v>2.744752867346757</v>
       </c>
       <c r="E8">
-        <v>18.27557051767679</v>
+        <v>15.94252177610042</v>
       </c>
       <c r="F8">
-        <v>35.78063801724922</v>
+        <v>36.84936986186442</v>
       </c>
       <c r="G8">
-        <v>55.93597554373155</v>
+        <v>58.65484184489689</v>
       </c>
       <c r="H8">
-        <v>4.104386498052083</v>
+        <v>3.835908074238105</v>
       </c>
       <c r="I8">
-        <v>3.712133959094188</v>
+        <v>3.439808424027328</v>
       </c>
       <c r="J8">
-        <v>14.06778197462869</v>
+        <v>14.99156885876384</v>
       </c>
       <c r="K8">
-        <v>30.98569282790483</v>
+        <v>21.78556428153278</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.89041763702502</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.5686012829623</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>39.42347243134802</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>35.30303842294937</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83602962302571</v>
+        <v>16.92937108640314</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.834618880849491</v>
+        <v>2.9570408437992</v>
       </c>
       <c r="E9">
-        <v>20.18214909059341</v>
+        <v>17.51535133742019</v>
       </c>
       <c r="F9">
-        <v>42.1261957395693</v>
+        <v>43.11849573925071</v>
       </c>
       <c r="G9">
-        <v>65.92176740598251</v>
+        <v>68.89617036491352</v>
       </c>
       <c r="H9">
-        <v>5.123440511193357</v>
+        <v>4.767189193219285</v>
       </c>
       <c r="I9">
-        <v>3.427171790865345</v>
+        <v>3.221092674359959</v>
       </c>
       <c r="J9">
-        <v>16.41000478245909</v>
+        <v>16.904813088832</v>
       </c>
       <c r="K9">
-        <v>34.73672047248405</v>
+        <v>24.12407546736245</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.35779657714646</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.6963620248032</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>45.46125683287862</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>40.87655084239727</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.259395879391</v>
+        <v>18.45338596496965</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.070747417101186</v>
+        <v>3.052934149025359</v>
       </c>
       <c r="E10">
-        <v>21.92398241347795</v>
+        <v>18.88117269975922</v>
       </c>
       <c r="F10">
-        <v>46.23298933441235</v>
+        <v>46.94594256715364</v>
       </c>
       <c r="G10">
-        <v>72.34701762851495</v>
+        <v>75.75050989701246</v>
       </c>
       <c r="H10">
-        <v>5.832020496727222</v>
+        <v>5.399547559756302</v>
       </c>
       <c r="I10">
-        <v>3.227890675926257</v>
+        <v>3.073824961936744</v>
       </c>
       <c r="J10">
-        <v>17.99900469433011</v>
+        <v>17.71039103864947</v>
       </c>
       <c r="K10">
-        <v>37.66686141766569</v>
+        <v>26.02508749920038</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>20.28721617770771</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.69300659048002</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>49.28137004368969</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>44.27891577949947</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.39060372405619</v>
+        <v>19.73620753623134</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.848400970666031</v>
+        <v>2.691339839129032</v>
       </c>
       <c r="E11">
-        <v>26.67230452351252</v>
+        <v>22.51312575846139</v>
       </c>
       <c r="F11">
-        <v>45.97270789413</v>
+        <v>46.3000241278483</v>
       </c>
       <c r="G11">
-        <v>71.59359455584428</v>
+        <v>75.77813103011157</v>
       </c>
       <c r="H11">
-        <v>6.260253661785894</v>
+        <v>5.794918795433539</v>
       </c>
       <c r="I11">
-        <v>3.147340777335568</v>
+        <v>3.028520134699229</v>
       </c>
       <c r="J11">
-        <v>17.79749429647602</v>
+        <v>16.50641593219857</v>
       </c>
       <c r="K11">
-        <v>41.25925126327525</v>
+        <v>28.34117954570179</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>22.23154783383494</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.2687299029101</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>48.76826056473416</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>43.18175832165055</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.08303193903674</v>
+        <v>20.52129325613842</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.672402716089331</v>
+        <v>2.42560398794073</v>
       </c>
       <c r="E12">
-        <v>30.71841767448346</v>
+        <v>25.86786933723645</v>
       </c>
       <c r="F12">
-        <v>44.94268051689856</v>
+        <v>45.1171331246633</v>
       </c>
       <c r="G12">
-        <v>69.69932748143454</v>
+        <v>74.28507711791089</v>
       </c>
       <c r="H12">
-        <v>6.91388764134455</v>
+        <v>6.470947298999527</v>
       </c>
       <c r="I12">
-        <v>3.104528666399593</v>
+        <v>3.00121598539229</v>
       </c>
       <c r="J12">
-        <v>17.31514936771467</v>
+        <v>15.57606306771265</v>
       </c>
       <c r="K12">
-        <v>43.53112514971959</v>
+        <v>29.78262764842721</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>23.38621035515404</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.29745532104882</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>47.46104516045611</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>41.53043045610282</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.48353494023048</v>
+        <v>20.97734971276374</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.52237097364552</v>
+        <v>2.220331105718173</v>
       </c>
       <c r="E13">
-        <v>34.47382838557803</v>
+        <v>29.15691607732528</v>
       </c>
       <c r="F13">
-        <v>43.18163418788233</v>
+        <v>43.46808891468669</v>
       </c>
       <c r="G13">
-        <v>66.67801437343918</v>
+        <v>71.3219831124336</v>
       </c>
       <c r="H13">
-        <v>7.706119399083661</v>
+        <v>7.313103527026666</v>
       </c>
       <c r="I13">
-        <v>3.099876354456599</v>
+        <v>3.001465318041813</v>
       </c>
       <c r="J13">
-        <v>16.55328315621733</v>
+        <v>14.94832095795412</v>
       </c>
       <c r="K13">
-        <v>45.1648524924292</v>
+        <v>30.77139165211116</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>24.10125688376479</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>22.07075717043415</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>45.50432923032186</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>39.38706428757601</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.63451319711037</v>
+        <v>21.15269762333539</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.442933359523673</v>
+        <v>2.106368637884354</v>
       </c>
       <c r="E14">
-        <v>37.02693572484043</v>
+        <v>31.4720042171004</v>
       </c>
       <c r="F14">
-        <v>41.58994167505571</v>
+        <v>42.07262810006304</v>
       </c>
       <c r="G14">
-        <v>64.00494732101802</v>
+        <v>68.54259104262266</v>
       </c>
       <c r="H14">
-        <v>8.338619652586143</v>
+        <v>7.986683134043557</v>
       </c>
       <c r="I14">
-        <v>3.115820674237783</v>
+        <v>3.016949834972862</v>
       </c>
       <c r="J14">
-        <v>15.88109885268487</v>
+        <v>14.62838799152926</v>
       </c>
       <c r="K14">
-        <v>46.0774772544421</v>
+        <v>31.29440256028177</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>24.42865632013147</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.52463298880028</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.83046141008726</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>37.64550708233052</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.60392836772172</v>
+        <v>21.12220274367058</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.420988397292955</v>
+        <v>2.079727833309497</v>
       </c>
       <c r="E15">
-        <v>37.56965935761768</v>
+        <v>31.98334753329917</v>
       </c>
       <c r="F15">
-        <v>41.02906584016077</v>
+        <v>41.61299674121245</v>
       </c>
       <c r="G15">
-        <v>63.08321339594299</v>
+        <v>67.53410309283096</v>
       </c>
       <c r="H15">
-        <v>8.47546453315074</v>
+        <v>8.136279879999796</v>
       </c>
       <c r="I15">
-        <v>3.131784781426097</v>
+        <v>3.031511593367427</v>
       </c>
       <c r="J15">
-        <v>15.65026711910847</v>
+        <v>14.59850286716204</v>
       </c>
       <c r="K15">
-        <v>46.2129982968198</v>
+        <v>31.35827709766078</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>24.43852667572057</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.60667600141131</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.29796009378457</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>37.12152264523425</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.96959752828387</v>
+        <v>20.42089209667718</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.335577925880846</v>
+        <v>2.051737935583299</v>
       </c>
       <c r="E16">
-        <v>36.36282001607301</v>
+        <v>31.04629755972647</v>
       </c>
       <c r="F16">
-        <v>39.48618501822912</v>
+        <v>40.50996641320052</v>
       </c>
       <c r="G16">
-        <v>60.68851783069253</v>
+        <v>64.60155198393591</v>
       </c>
       <c r="H16">
-        <v>8.104679127850916</v>
+        <v>7.797647183846893</v>
       </c>
       <c r="I16">
-        <v>3.223636228148837</v>
+        <v>3.101038769292399</v>
       </c>
       <c r="J16">
-        <v>15.05895727860066</v>
+        <v>14.98353009363215</v>
       </c>
       <c r="K16">
-        <v>44.86106912015156</v>
+        <v>30.41486766359005</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>23.51976404024106</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.07837940734498</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>42.01653270508464</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>36.11947737338024</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.38559498722625</v>
+        <v>19.77421771603266</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.304726036554167</v>
+        <v>2.094824032303121</v>
       </c>
       <c r="E17">
-        <v>33.97336231228939</v>
+        <v>28.97915796325292</v>
       </c>
       <c r="F17">
-        <v>39.18424661962745</v>
+        <v>40.38305965952713</v>
       </c>
       <c r="G17">
-        <v>60.33593938367189</v>
+        <v>63.94857322995748</v>
       </c>
       <c r="H17">
-        <v>7.428760804836903</v>
+        <v>7.124373901619591</v>
       </c>
       <c r="I17">
-        <v>3.286144222837992</v>
+        <v>3.146796943197605</v>
       </c>
       <c r="J17">
-        <v>14.97909073912706</v>
+        <v>15.34949494928057</v>
       </c>
       <c r="K17">
-        <v>43.30052993293629</v>
+        <v>29.4027759438845</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>22.63228804413412</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.42468146757949</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>41.94972025664901</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>36.29293618180059</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.79963623156585</v>
+        <v>19.11419145261968</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.360740864859337</v>
+        <v>2.247592287014307</v>
       </c>
       <c r="E18">
-        <v>30.35496021961334</v>
+        <v>25.82209872659491</v>
       </c>
       <c r="F18">
-        <v>39.95849441619313</v>
+        <v>41.19049585971486</v>
       </c>
       <c r="G18">
-        <v>61.77490538751068</v>
+        <v>65.16213601177888</v>
       </c>
       <c r="H18">
-        <v>6.514553541063452</v>
+        <v>6.187891799298856</v>
       </c>
       <c r="I18">
-        <v>3.320960416228278</v>
+        <v>3.165647846950633</v>
       </c>
       <c r="J18">
-        <v>15.34800323246987</v>
+        <v>15.90024943753856</v>
       </c>
       <c r="K18">
-        <v>41.29173854200407</v>
+        <v>28.14444196224236</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>21.62106968436412</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>20.52983181341771</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>42.89809868176926</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>37.51063485778586</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.24333684682871</v>
+        <v>18.48561670663254</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.538323617954042</v>
+        <v>2.512737529540794</v>
       </c>
       <c r="E19">
-        <v>26.32542370946673</v>
+        <v>22.37131370486858</v>
       </c>
       <c r="F19">
-        <v>41.50776746192151</v>
+        <v>42.69277516486947</v>
       </c>
       <c r="G19">
-        <v>64.49234863449237</v>
+        <v>67.70591869051155</v>
       </c>
       <c r="H19">
-        <v>5.738856306877114</v>
+        <v>5.372704559801586</v>
       </c>
       <c r="I19">
-        <v>3.34323155580034</v>
+        <v>3.179598081859049</v>
       </c>
       <c r="J19">
-        <v>16.03515858967386</v>
+        <v>16.6053745955166</v>
       </c>
       <c r="K19">
-        <v>39.34704593349569</v>
+        <v>26.9605938022106</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>20.71931422006104</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.64330841050935</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>44.67491436304871</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>39.54041750530482</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.86213960959079</v>
+        <v>18.03154157528715</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.998990089313922</v>
+        <v>3.023668021554945</v>
       </c>
       <c r="E20">
-        <v>21.56869300976478</v>
+        <v>18.60149243880066</v>
       </c>
       <c r="F20">
-        <v>45.10750465173365</v>
+        <v>46.03962467373992</v>
       </c>
       <c r="G20">
-        <v>70.57472827179677</v>
+        <v>73.73904665187302</v>
       </c>
       <c r="H20">
-        <v>5.651849720624087</v>
+        <v>5.240787331492785</v>
       </c>
       <c r="I20">
-        <v>3.302861272777864</v>
+        <v>3.142780267273416</v>
       </c>
       <c r="J20">
-        <v>17.55989838417229</v>
+        <v>17.73985789500044</v>
       </c>
       <c r="K20">
-        <v>37.30199155943014</v>
+        <v>25.77044919355602</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>19.96289992527395</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.61789234904685</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>48.44243906974791</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>43.54319884668019</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81510770056155</v>
+        <v>19.0910617398922</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.246462233951318</v>
+        <v>3.098671684083763</v>
       </c>
       <c r="E21">
-        <v>22.22505905088068</v>
+        <v>19.04905262285902</v>
       </c>
       <c r="F21">
-        <v>48.56648575677001</v>
+        <v>48.59304373782435</v>
       </c>
       <c r="G21">
-        <v>76.05355923800951</v>
+        <v>80.27849391290852</v>
       </c>
       <c r="H21">
-        <v>6.241206865054783</v>
+        <v>5.749616511805138</v>
       </c>
       <c r="I21">
-        <v>3.147253660904969</v>
+        <v>3.025572353841597</v>
       </c>
       <c r="J21">
-        <v>18.91860621503863</v>
+        <v>17.16288378345554</v>
       </c>
       <c r="K21">
-        <v>39.02720257103864</v>
+        <v>27.02003295255788</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>21.27912857950419</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.23174462224368</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>51.62301324482493</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>46.26469166768413</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.45488543545311</v>
+        <v>19.80012664136801</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.388917307159287</v>
+        <v>3.123385053086323</v>
       </c>
       <c r="E22">
-        <v>22.82812044813801</v>
+        <v>19.47584353962548</v>
       </c>
       <c r="F22">
-        <v>50.6774105613322</v>
+        <v>50.0889593731749</v>
       </c>
       <c r="G22">
-        <v>79.38280367961916</v>
+        <v>84.30875094260983</v>
       </c>
       <c r="H22">
-        <v>6.608145666820958</v>
+        <v>6.062475542944074</v>
       </c>
       <c r="I22">
-        <v>3.036835536073156</v>
+        <v>2.937769456255579</v>
       </c>
       <c r="J22">
-        <v>19.74416968394492</v>
+        <v>16.67276560428762</v>
       </c>
       <c r="K22">
-        <v>40.10788270777307</v>
+        <v>27.80806645381075</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>22.10999729867929</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.61880867509207</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>53.43800583919543</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>47.7760791599471</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.12950664081954</v>
+        <v>19.42776880935082</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.315717001959342</v>
+        <v>3.129663201584667</v>
       </c>
       <c r="E23">
-        <v>22.48120890797654</v>
+        <v>19.25191352401311</v>
       </c>
       <c r="F23">
-        <v>49.57264295285702</v>
+        <v>49.39693755858836</v>
       </c>
       <c r="G23">
-        <v>77.64316856597124</v>
+        <v>82.08231636485313</v>
       </c>
       <c r="H23">
-        <v>6.409224665977037</v>
+        <v>5.89683069900069</v>
       </c>
       <c r="I23">
-        <v>3.086641490062677</v>
+        <v>2.972374722013051</v>
       </c>
       <c r="J23">
-        <v>19.31289896763639</v>
+        <v>17.1230328040032</v>
       </c>
       <c r="K23">
-        <v>39.39623908453899</v>
+        <v>27.28300106503154</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>21.58997600806318</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.33121097216992</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>52.42112976521472</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>46.96376050340265</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.8177032253797</v>
+        <v>17.97220529821419</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.033500599138665</v>
+        <v>3.063047747469783</v>
       </c>
       <c r="E24">
-        <v>21.18523456818825</v>
+        <v>18.33638876222422</v>
       </c>
       <c r="F24">
-        <v>45.27565053961936</v>
+        <v>46.19905190378675</v>
       </c>
       <c r="G24">
-        <v>70.87488692280452</v>
+        <v>73.99827263985873</v>
       </c>
       <c r="H24">
-        <v>5.662665178160683</v>
+        <v>5.255519769945743</v>
       </c>
       <c r="I24">
-        <v>3.291239837265334</v>
+        <v>3.125215578733478</v>
       </c>
       <c r="J24">
-        <v>17.6357745756986</v>
+        <v>17.82513933381594</v>
       </c>
       <c r="K24">
-        <v>36.85588085397512</v>
+        <v>25.48595463480832</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>19.74665904543181</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.40411053463919</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>48.51084417612712</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>43.66871999297657</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.2765706450816</v>
+        <v>16.35216373480878</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.724902010491898</v>
+        <v>2.906037246456955</v>
       </c>
       <c r="E25">
-        <v>19.7276025087571</v>
+        <v>17.13129454566254</v>
       </c>
       <c r="F25">
-        <v>40.43146848762669</v>
+        <v>41.514661702974</v>
       </c>
       <c r="G25">
-        <v>63.24901718002955</v>
+        <v>66.1064433608914</v>
       </c>
       <c r="H25">
-        <v>4.854538301205668</v>
+        <v>4.522393938722814</v>
       </c>
       <c r="I25">
-        <v>3.515665449616732</v>
+        <v>3.295761243885948</v>
       </c>
       <c r="J25">
-        <v>15.74862642626144</v>
+        <v>16.50165935682775</v>
       </c>
       <c r="K25">
-        <v>33.97908057556582</v>
+        <v>23.64124367774923</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>17.80128974662106</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.50409473721571</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>43.99886174046396</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>39.51460373298596</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
